--- a/Modeling_Workbench/runtime-sbfl-evaluation/MutationTesting2XArduino/Arduino.Overall.xlsx
+++ b/Modeling_Workbench/runtime-sbfl-evaluation/MutationTesting2XArduino/Arduino.Overall.xlsx
@@ -8,27 +8,37 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\labtop\GitHub\xtdl_FaultLocalization\org.imt.tdl.sbfl.evaluation\evaluationData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0E6B688-047F-4465-B215-69711673EE2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28F40766-002D-4944-950C-D3E5E4B16997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ActiveWait" sheetId="1" r:id="rId1"/>
     <sheet name="BlinkingLED" sheetId="2" r:id="rId2"/>
     <sheet name="SensorAlarm" sheetId="3" r:id="rId3"/>
     <sheet name="ServorIrButton" sheetId="4" r:id="rId4"/>
+    <sheet name="Average" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="34">
   <si>
     <t>SBFL Technique</t>
   </si>
@@ -116,11 +126,29 @@
   <si>
     <t>barinel</t>
   </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>ActiveWait</t>
+  </si>
+  <si>
+    <t>BlinkingLED</t>
+  </si>
+  <si>
+    <t>SensorAlarm</t>
+  </si>
+  <si>
+    <t>ServoIrButton</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -130,7 +158,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -161,8 +189,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -170,16 +216,169 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -463,7 +662,7 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1118,7 +1317,7 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1773,7 +1972,7 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1823,10 +2022,10 @@
       <c r="D2">
         <v>0.123</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="5">
         <v>0.16700000000000001</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="2">
         <v>0.188</v>
       </c>
       <c r="G2">
@@ -1855,7 +2054,7 @@
       <c r="D3">
         <v>0.124</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="5">
         <v>0.16700000000000001</v>
       </c>
       <c r="F3">
@@ -1887,7 +2086,7 @@
       <c r="D4">
         <v>0</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="5">
         <v>0.30599999999999999</v>
       </c>
       <c r="F4">
@@ -1919,10 +2118,10 @@
       <c r="D5">
         <v>0.122</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="5">
         <v>0.16700000000000001</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="1">
         <v>0.185</v>
       </c>
       <c r="G5">
@@ -1951,10 +2150,10 @@
       <c r="D6">
         <v>0.124</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="5">
         <v>0.222</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="3">
         <v>0.217</v>
       </c>
       <c r="G6">
@@ -1983,10 +2182,10 @@
       <c r="D7">
         <v>0.122</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="5">
         <v>0.16700000000000001</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="2">
         <v>0.188</v>
       </c>
       <c r="G7">
@@ -2015,10 +2214,10 @@
       <c r="D8">
         <v>0.122</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="5">
         <v>0.16700000000000001</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="2">
         <v>0.188</v>
       </c>
       <c r="G8">
@@ -2047,10 +2246,10 @@
       <c r="D9">
         <v>0.122</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="5">
         <v>0.16700000000000001</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="1">
         <v>0.185</v>
       </c>
       <c r="G9">
@@ -2079,10 +2278,10 @@
       <c r="D10">
         <v>0.122</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="5">
         <v>0.16700000000000001</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="1">
         <v>0.185</v>
       </c>
       <c r="G10">
@@ -2111,7 +2310,7 @@
       <c r="D11">
         <v>0.124</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="5">
         <v>0.16700000000000001</v>
       </c>
       <c r="F11">
@@ -2143,10 +2342,10 @@
       <c r="D12">
         <v>0.122</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="5">
         <v>0.16700000000000001</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="1">
         <v>0.185</v>
       </c>
       <c r="G12">
@@ -2175,10 +2374,10 @@
       <c r="D13">
         <v>0.14099999999999999</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="5">
         <v>0.222</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="4">
         <v>0.23300000000000001</v>
       </c>
       <c r="G13">
@@ -2207,7 +2406,7 @@
       <c r="D14">
         <v>0.33300000000000002</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="5">
         <v>0.63900000000000001</v>
       </c>
       <c r="F14">
@@ -2239,10 +2438,10 @@
       <c r="D15">
         <v>0.123</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="5">
         <v>0.16700000000000001</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="2">
         <v>0.188</v>
       </c>
       <c r="G15">
@@ -2271,7 +2470,7 @@
       <c r="D16">
         <v>0</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="5">
         <v>0.25</v>
       </c>
       <c r="F16">
@@ -2303,7 +2502,7 @@
       <c r="D17">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="5">
         <v>0.16700000000000001</v>
       </c>
       <c r="F17">
@@ -2335,7 +2534,7 @@
       <c r="D18">
         <v>0.126</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="5">
         <v>0.16700000000000001</v>
       </c>
       <c r="F18">
@@ -2367,7 +2566,7 @@
       <c r="D19">
         <v>0.13100000000000001</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="5">
         <v>0.63900000000000001</v>
       </c>
       <c r="F19">
@@ -2399,7 +2598,7 @@
       <c r="D20">
         <v>0.17</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="5">
         <v>0.222</v>
       </c>
       <c r="F20">
@@ -2427,8 +2626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67FF827E-9907-4C4D-8A39-0652C77CD407}">
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2478,10 +2677,10 @@
       <c r="D2">
         <v>7.5999999999999998E-2</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="5">
         <v>0.16700000000000001</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="3">
         <v>0.20200000000000001</v>
       </c>
       <c r="G2">
@@ -2510,7 +2709,7 @@
       <c r="D3">
         <v>0.12</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="5">
         <v>0.38100000000000001</v>
       </c>
       <c r="F3">
@@ -2542,7 +2741,7 @@
       <c r="D4">
         <v>0.09</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="5">
         <v>0.35699999999999998</v>
       </c>
       <c r="F4">
@@ -2574,10 +2773,10 @@
       <c r="D5">
         <v>7.5999999999999998E-2</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="5">
         <v>0.16700000000000001</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="1">
         <v>0.19600000000000001</v>
       </c>
       <c r="G5">
@@ -2606,7 +2805,7 @@
       <c r="D6">
         <v>7.5999999999999998E-2</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="5">
         <v>0.16700000000000001</v>
       </c>
       <c r="F6">
@@ -2638,7 +2837,7 @@
       <c r="D7">
         <v>0.10199999999999999</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="5">
         <v>0.16700000000000001</v>
       </c>
       <c r="F7">
@@ -2670,7 +2869,7 @@
       <c r="D8">
         <v>0.10199999999999999</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="5">
         <v>0.16700000000000001</v>
       </c>
       <c r="F8">
@@ -2702,10 +2901,10 @@
       <c r="D9">
         <v>7.5999999999999998E-2</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="5">
         <v>0.16700000000000001</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="1">
         <v>0.19600000000000001</v>
       </c>
       <c r="G9">
@@ -2734,10 +2933,10 @@
       <c r="D10">
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="5">
         <v>0.16700000000000001</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="4">
         <v>0.20699999999999999</v>
       </c>
       <c r="G10">
@@ -2766,7 +2965,7 @@
       <c r="D11">
         <v>0.108</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="5">
         <v>0.38100000000000001</v>
       </c>
       <c r="F11">
@@ -2798,10 +2997,10 @@
       <c r="D12">
         <v>7.5999999999999998E-2</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="5">
         <v>0.16700000000000001</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="1">
         <v>0.19600000000000001</v>
       </c>
       <c r="G12">
@@ -2830,7 +3029,7 @@
       <c r="D13">
         <v>9.2999999999999999E-2</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="5">
         <v>0.28599999999999998</v>
       </c>
       <c r="F13">
@@ -2862,7 +3061,7 @@
       <c r="D14">
         <v>0.26600000000000001</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="5">
         <v>0.45200000000000001</v>
       </c>
       <c r="F14">
@@ -2894,10 +3093,10 @@
       <c r="D15">
         <v>7.5999999999999998E-2</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="5">
         <v>0.16700000000000001</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="2">
         <v>0.2</v>
       </c>
       <c r="G15">
@@ -2926,7 +3125,7 @@
       <c r="D16">
         <v>0.08</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="5">
         <v>0.31</v>
       </c>
       <c r="F16">
@@ -2958,7 +3157,7 @@
       <c r="D17">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="5">
         <v>0.5</v>
       </c>
       <c r="F17">
@@ -2990,7 +3189,7 @@
       <c r="D18">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="5">
         <v>0.5</v>
       </c>
       <c r="F18">
@@ -3022,7 +3221,7 @@
       <c r="D19">
         <v>0.106</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="5">
         <v>0.61899999999999999</v>
       </c>
       <c r="F19">
@@ -3054,7 +3253,7 @@
       <c r="D20">
         <v>0.14299999999999999</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="5">
         <v>0.47599999999999998</v>
       </c>
       <c r="F20">
@@ -3076,4 +3275,461 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FEA3FA1-9878-4087-8D56-20FC72644890}">
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="14.90625" customWidth="1"/>
+    <col min="2" max="2" width="11" style="18" customWidth="1"/>
+    <col min="3" max="3" width="11.1796875" style="18" customWidth="1"/>
+    <col min="4" max="4" width="11.90625" style="18" customWidth="1"/>
+    <col min="5" max="5" width="12.54296875" style="18" customWidth="1"/>
+    <col min="6" max="6" width="8.7265625" style="18"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="6"/>
+      <c r="B1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="11"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="14">
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="C3" s="14">
+        <v>0.35</v>
+      </c>
+      <c r="D3" s="15">
+        <v>0.188</v>
+      </c>
+      <c r="E3" s="16">
+        <v>0.20200000000000001</v>
+      </c>
+      <c r="F3" s="25">
+        <f>AVERAGE(B3:E3)</f>
+        <v>0.25424999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="18">
+        <v>0.373</v>
+      </c>
+      <c r="C4" s="19">
+        <v>0.41899999999999998</v>
+      </c>
+      <c r="D4" s="18">
+        <v>0.245</v>
+      </c>
+      <c r="E4" s="18">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="F4" s="17">
+        <f t="shared" ref="F4:F21" si="0">AVERAGE(B4:E4)</f>
+        <v>0.32799999999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="18">
+        <v>0.373</v>
+      </c>
+      <c r="C5" s="15">
+        <v>0.4</v>
+      </c>
+      <c r="D5" s="18">
+        <v>0.33400000000000002</v>
+      </c>
+      <c r="E5" s="18">
+        <v>0.36299999999999999</v>
+      </c>
+      <c r="F5" s="17">
+        <f t="shared" si="0"/>
+        <v>0.36749999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="14">
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="C6" s="14">
+        <v>0.35</v>
+      </c>
+      <c r="D6" s="14">
+        <v>0.185</v>
+      </c>
+      <c r="E6" s="14">
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="F6" s="24">
+        <f t="shared" si="0"/>
+        <v>0.252</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="16">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="C7" s="16">
+        <v>0.40600000000000003</v>
+      </c>
+      <c r="D7" s="16">
+        <v>0.217</v>
+      </c>
+      <c r="E7" s="18">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="F7" s="17">
+        <f t="shared" si="0"/>
+        <v>0.28499999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="15">
+        <v>0.29199999999999998</v>
+      </c>
+      <c r="C8" s="14">
+        <v>0.35</v>
+      </c>
+      <c r="D8" s="15">
+        <v>0.188</v>
+      </c>
+      <c r="E8" s="18">
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="F8" s="27">
+        <f t="shared" si="0"/>
+        <v>0.26049999999999995</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="15">
+        <v>0.29199999999999998</v>
+      </c>
+      <c r="C9" s="14">
+        <v>0.35</v>
+      </c>
+      <c r="D9" s="15">
+        <v>0.188</v>
+      </c>
+      <c r="E9" s="18">
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="F9" s="27">
+        <f t="shared" si="0"/>
+        <v>0.26049999999999995</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="14">
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="C10" s="14">
+        <v>0.35</v>
+      </c>
+      <c r="D10" s="14">
+        <v>0.185</v>
+      </c>
+      <c r="E10" s="14">
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="F10" s="24">
+        <f t="shared" si="0"/>
+        <v>0.252</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="14">
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="C11" s="14">
+        <v>0.35</v>
+      </c>
+      <c r="D11" s="14">
+        <v>0.185</v>
+      </c>
+      <c r="E11" s="19">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="F11" s="26">
+        <f t="shared" si="0"/>
+        <v>0.25475000000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="18">
+        <v>0.373</v>
+      </c>
+      <c r="C12" s="19">
+        <v>0.41899999999999998</v>
+      </c>
+      <c r="D12" s="18">
+        <v>0.245</v>
+      </c>
+      <c r="E12" s="18">
+        <v>0.27300000000000002</v>
+      </c>
+      <c r="F12" s="17">
+        <f t="shared" si="0"/>
+        <v>0.32750000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="14">
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="C13" s="14">
+        <v>0.35</v>
+      </c>
+      <c r="D13" s="14">
+        <v>0.185</v>
+      </c>
+      <c r="E13" s="14">
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="F13" s="24">
+        <f t="shared" si="0"/>
+        <v>0.252</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="18">
+        <v>0.46500000000000002</v>
+      </c>
+      <c r="C14" s="18">
+        <v>0.53100000000000003</v>
+      </c>
+      <c r="D14" s="19">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="E14" s="18">
+        <v>0.27400000000000002</v>
+      </c>
+      <c r="F14" s="17">
+        <f t="shared" si="0"/>
+        <v>0.37575000000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="18">
+        <v>0.53100000000000003</v>
+      </c>
+      <c r="C15" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="D15" s="18">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="E15" s="18">
+        <v>0.435</v>
+      </c>
+      <c r="F15" s="17">
+        <f t="shared" si="0"/>
+        <v>0.50900000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="14">
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="C16" s="14">
+        <v>0.35</v>
+      </c>
+      <c r="D16" s="15">
+        <v>0.188</v>
+      </c>
+      <c r="E16" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="F16" s="25">
+        <f t="shared" si="0"/>
+        <v>0.25374999999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="19">
+        <v>0.35</v>
+      </c>
+      <c r="C17" s="15">
+        <v>0.4</v>
+      </c>
+      <c r="D17" s="18">
+        <v>0.27200000000000002</v>
+      </c>
+      <c r="E17" s="18">
+        <v>0.32700000000000001</v>
+      </c>
+      <c r="F17" s="17">
+        <f t="shared" si="0"/>
+        <v>0.33724999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="18">
+        <v>0.373</v>
+      </c>
+      <c r="C18" s="19">
+        <v>0.41899999999999998</v>
+      </c>
+      <c r="D18" s="18">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="E18" s="18">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="F18" s="17">
+        <f t="shared" si="0"/>
+        <v>0.35175000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="18">
+        <v>0.39200000000000002</v>
+      </c>
+      <c r="C19" s="19">
+        <v>0.41899999999999998</v>
+      </c>
+      <c r="D19" s="18">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="E19" s="18">
+        <v>0.32</v>
+      </c>
+      <c r="F19" s="17">
+        <f t="shared" si="0"/>
+        <v>0.35399999999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="18">
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="C20" s="18">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="D20" s="18">
+        <v>0.65700000000000003</v>
+      </c>
+      <c r="E20" s="18">
+        <v>0.60399999999999998</v>
+      </c>
+      <c r="F20" s="17">
+        <f t="shared" si="0"/>
+        <v>0.59550000000000003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="20">
+        <v>0.47299999999999998</v>
+      </c>
+      <c r="C21" s="21">
+        <v>0.45</v>
+      </c>
+      <c r="D21" s="21">
+        <v>0.32300000000000001</v>
+      </c>
+      <c r="E21" s="22">
+        <v>0.31900000000000001</v>
+      </c>
+      <c r="F21" s="23">
+        <f t="shared" si="0"/>
+        <v>0.39124999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F1:F2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>